--- a/Data/2020__FastSlowSort__Brdu_data.xlsx
+++ b/Data/2020__FastSlowSort__Brdu_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcarey/Develop/GrowthPredictionTMRE/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcarey/Develop/ProliferationMitochondriaHeterogeneity/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDC436C-99E8-9144-A0A7-BFB4017E16C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35550C5D-6299-AF4A-A745-EFBBF73FA05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="580" windowWidth="39120" windowHeight="24440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21220" yWindow="1520" windowWidth="27520" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BrdU_ESC" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
   <si>
     <t>Slow cells AA+Oligomycin</t>
   </si>
@@ -67,17 +67,27 @@
     <t xml:space="preserve">Replicate 1 </t>
   </si>
   <si>
-    <t>Day</t>
+    <t>Replicate 3</t>
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,7 +100,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,18 +125,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +452,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4117-A241-9335-C6186801CFA5}"/>
+              <c16:uniqueId val="{00000000-D680-EE42-AC5B-DF4BC34287CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -704,7 +725,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4117-A241-9335-C6186801CFA5}"/>
+              <c16:uniqueId val="{00000001-D680-EE42-AC5B-DF4BC34287CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -718,11 +739,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-509964928"/>
-        <c:axId val="-510338032"/>
+        <c:axId val="1918775632"/>
+        <c:axId val="1918776992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-509964928"/>
+        <c:axId val="1918775632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-510338032"/>
+        <c:crossAx val="1918776992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -770,7 +791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-510338032"/>
+        <c:axId val="1918776992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-509964928"/>
+        <c:crossAx val="1918775632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -935,7 +956,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2202827056256501E-2"/>
+          <c:y val="4.24207923877589E-2"/>
+          <c:w val="0.79299592069063596"/>
+          <c:h val="0.52160700558868101"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1349,7 +1380,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0CD-C741-9AED-09A68DFF61AC}"/>
+              <c16:uniqueId val="{00000000-C6C9-FE4C-A3CF-E408E525A21A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1766,7 +1797,414 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0CD-C741-9AED-09A68DFF61AC}"/>
+              <c16:uniqueId val="{00000001-C6C9-FE4C-A3CF-E408E525A21A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BrdU_Fibro!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Replicate 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>BrdU_Fibro!$A$2:$B$45</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="44"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Fast cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fast cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fast cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fast cells AA+Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Slow cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Slow cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Slow cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Slow cells AA+Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Fast cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Fast cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Fast cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Fast cells AA+Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Slow cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Slow cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Slow cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Slow cells AA+Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Fast cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Fast cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Fast cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Fast cells AA+Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Slow cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Slow cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Slow cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Slow cells AA+Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Fast cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Fast cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Fast cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Fast cells AA+Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Slow cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Slow cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Slow cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Slow cells AA+Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Fast cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Fast cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Fast cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Fast cells AA+Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Slow cells DMSO</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Slow cells Antimycin</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Slow cells Oligomycin</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Slow cells AA+Oligomycin</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BrdU_Fibro!$E$2:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6C9-FE4C-A3CF-E408E525A21A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1780,11 +2218,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-450699184"/>
-        <c:axId val="-510186272"/>
+        <c:axId val="1919765760"/>
+        <c:axId val="1919768240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-450699184"/>
+        <c:axId val="1919765760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +2262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-510186272"/>
+        <c:crossAx val="1919768240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1832,7 +2270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-510186272"/>
+        <c:axId val="1919768240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +2336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-450699184"/>
+        <c:crossAx val="1919765760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1978,15 +2416,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2020,16 +2458,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2322,403 +2760,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A1:A27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="22.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>0.58599999999999997</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>0.61799999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>0.58899999999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>0.60199999999999998</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>0.505</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>0.69899999999999995</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>0.51200000000000001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>0.626</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>0.54</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>0.68200000000000005</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>0.503</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>0.52300000000000002</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>0.443</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>0.56499999999999995</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>0.61599999999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <v>0.74399999999999999</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>0.624</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>0.56899999999999995</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>0.46899999999999997</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>0.56299999999999994</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <v>0.55700000000000005</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>0.502</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <v>0.68799999999999994</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>0.56499999999999995</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>0.495</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="7">
         <v>0.47499999999999998</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>3</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="7">
         <v>0.69299999999999995</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>3</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>0.57599999999999996</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="7">
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>3</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="7">
         <v>0.54</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="7">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>3</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="7">
         <v>0.56100000000000005</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>0.58299999999999996</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="7">
         <v>0.63300000000000001</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>0.65</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="7">
         <v>0.58599999999999997</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>3</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="7">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="7">
         <v>0.47499999999999998</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="7">
         <v>0.48599999999999999</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2728,614 +3163,741 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A45" sqref="A1:A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="20.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>0.40699999999999997</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>0.38200000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+      <c r="E2" s="1">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>0.40100000000000002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0.36499999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="E3" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>0.30499999999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>0.34499999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="E4" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="E5" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>0.35299999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="E6" s="1">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>0.27300000000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>0.317</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="E7" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>0.30099999999999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>0.307</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="E8" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>0.3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>0.26800000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="E9" s="1">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>0.39300000000000002</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <v>0.42299999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
+      <c r="E11" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>0.35299999999999998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>0.40300000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="E12" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>0.27400000000000002</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
+      <c r="E13" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>0.28899999999999998</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <v>0.33400000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
+      <c r="E14" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>0.33200000000000002</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
+      <c r="E15" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>0.308</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="E16" s="1">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>0.26600000000000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>0.253</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="E17" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="7">
         <v>0.27100000000000002</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
+      <c r="E18" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>3</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>0.26</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="7">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+      <c r="E20" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>3</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>0.23</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="7">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="E21" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>3</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="7">
         <v>0.22</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="7">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="E22" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>3</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>0.21</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="7">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="E23" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="7">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="E24" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="7">
         <v>0.25700000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="E25" s="1">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>3</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>0.21299999999999999</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="7">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="E26" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="7">
         <v>0.20899999999999999</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="7">
         <v>0.23699999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
+      <c r="E27" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>4</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>0.25600000000000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="7">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
+      <c r="E29" s="1">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="7">
         <v>0.22900000000000001</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="7">
         <v>0.253</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
+      <c r="E30" s="1">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>4</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>0.21</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="7">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
+      <c r="E31" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>4</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>0.21</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="7">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
+      <c r="E32" s="1">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>4</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>0.216</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="7">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6">
+      <c r="E33" s="1">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>4</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="7">
         <v>0.217</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="7">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
+      <c r="E34" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>4</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7">
         <v>0.158</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="7">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
+      <c r="E35" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>4</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="7">
         <v>0.193</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
+      <c r="E36" s="1">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="7"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>5</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="7">
         <v>0.32200000000000001</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="7">
         <v>0.315</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
+      <c r="E38" s="9">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>5</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="7">
         <v>0.309</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="7">
         <v>0.31900000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
+      <c r="E39" s="9">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>5</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="7">
         <v>0.183</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6">
+      <c r="E40" s="9">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>5</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="7">
         <v>0.20200000000000001</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="7">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6">
+      <c r="E41" s="9">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>5</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="7">
         <v>0.28899999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
+      <c r="E42" s="9">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>5</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="7">
         <v>0.25600000000000001</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="7">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6">
+      <c r="E43" s="9">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>5</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="7">
         <v>0.20899999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6">
+      <c r="E44" s="9">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>5</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>0.14899999999999999</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="7">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E45" s="9">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
